--- a/backend/uploads/transkip_nilai/Transkip_Nilai.xlsx
+++ b/backend/uploads/transkip_nilai/Transkip_Nilai.xlsx
@@ -26,13 +26,13 @@
     <t>NAMA</t>
   </si>
   <si>
-    <t>Agung Budi Utomo</t>
+    <t>Alvin Ichwannur Ridho</t>
   </si>
   <si>
     <t>NIM</t>
   </si>
   <si>
-    <t>I0717002</t>
+    <t>I0717004</t>
   </si>
   <si>
     <t>ANGKATAN</t>
@@ -636,13 +636,13 @@
         <v>80.0</v>
       </c>
       <c r="F11">
-        <v>100.0</v>
+        <v>95.0</v>
       </c>
       <c r="G11">
-        <v>82.5</v>
+        <v>91.0</v>
       </c>
       <c r="H11">
-        <v>82.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -662,7 +662,7 @@
         <v>80.0</v>
       </c>
       <c r="F12">
-        <v>95.0</v>
+        <v>90.0</v>
       </c>
       <c r="G12">
         <v>91.0</v>
@@ -688,13 +688,13 @@
         <v>80.0</v>
       </c>
       <c r="F13">
-        <v>100.0</v>
+        <v>95.0</v>
       </c>
       <c r="G13">
-        <v>82.5</v>
+        <v>91.0</v>
       </c>
       <c r="H13">
-        <v>82.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -708,19 +708,19 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>75.0</v>
+        <v>92.0</v>
       </c>
       <c r="E14">
-        <v>71.0</v>
+        <v>88.0</v>
       </c>
       <c r="F14">
-        <v>73.0</v>
+        <v>78.0</v>
       </c>
       <c r="G14">
-        <v>77.0</v>
+        <v>86.0</v>
       </c>
       <c r="H14">
-        <v>90.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -734,16 +734,16 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>72.0</v>
+        <v>65.0</v>
       </c>
       <c r="E15">
-        <v>89.0</v>
+        <v>76.0</v>
       </c>
       <c r="F15">
-        <v>77.0</v>
+        <v>81.0</v>
       </c>
       <c r="G15">
-        <v>74.0</v>
+        <v>66.0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/transkip_nilai/Transkip_Nilai.xlsx
+++ b/backend/uploads/transkip_nilai/Transkip_Nilai.xlsx
@@ -26,13 +26,13 @@
     <t>NAMA</t>
   </si>
   <si>
-    <t>Alvin Ichwannur Ridho</t>
+    <t>Aditya Pratama</t>
   </si>
   <si>
     <t>NIM</t>
   </si>
   <si>
-    <t>I0717004</t>
+    <t>I0717001</t>
   </si>
   <si>
     <t>ANGKATAN</t>
@@ -89,10 +89,10 @@
     <t>Mesin Listrik Dasar</t>
   </si>
   <si>
-    <t>EE0102-19</t>
-  </si>
-  <si>
-    <t>Fisika Dasar I</t>
+    <t>EE0406-19</t>
+  </si>
+  <si>
+    <t>Sistem Kendali</t>
   </si>
 </sst>
 </file>
@@ -636,13 +636,13 @@
         <v>80.0</v>
       </c>
       <c r="F11">
-        <v>95.0</v>
+        <v>100.0</v>
       </c>
       <c r="G11">
-        <v>91.0</v>
+        <v>82.5</v>
       </c>
       <c r="H11">
-        <v>95.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -662,13 +662,13 @@
         <v>80.0</v>
       </c>
       <c r="F12">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="G12">
-        <v>91.0</v>
+        <v>82.5</v>
       </c>
       <c r="H12">
-        <v>95.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -688,13 +688,13 @@
         <v>80.0</v>
       </c>
       <c r="F13">
-        <v>95.0</v>
+        <v>100.0</v>
       </c>
       <c r="G13">
-        <v>91.0</v>
+        <v>82.5</v>
       </c>
       <c r="H13">
-        <v>95.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -708,19 +708,19 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>92.0</v>
+        <v>85.0</v>
       </c>
       <c r="E14">
-        <v>88.0</v>
+        <v>70.0</v>
       </c>
       <c r="F14">
-        <v>78.0</v>
+        <v>84.0</v>
       </c>
       <c r="G14">
-        <v>86.0</v>
+        <v>84.0</v>
       </c>
       <c r="H14">
-        <v>88.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -734,16 +734,19 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>65.0</v>
+        <v>1.0</v>
       </c>
       <c r="E15">
-        <v>76.0</v>
+        <v>2.0</v>
       </c>
       <c r="F15">
-        <v>81.0</v>
+        <v>3.0</v>
       </c>
       <c r="G15">
-        <v>66.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="H15">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/transkip_nilai/Transkip_Nilai.xlsx
+++ b/backend/uploads/transkip_nilai/Transkip_Nilai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -26,13 +26,13 @@
     <t>NAMA</t>
   </si>
   <si>
-    <t>Aditya Pratama</t>
+    <t>Alvin Ichwannur Ridho</t>
   </si>
   <si>
     <t>NIM</t>
   </si>
   <si>
-    <t>I0717001</t>
+    <t>I0717004</t>
   </si>
   <si>
     <t>ANGKATAN</t>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>Sistem Kendali</t>
+  </si>
+  <si>
+    <t>EE0102-19</t>
+  </si>
+  <si>
+    <t>Fisika Dasar I</t>
+  </si>
+  <si>
+    <t>EE0101-19</t>
+  </si>
+  <si>
+    <t>Kalkulus I</t>
   </si>
 </sst>
 </file>
@@ -497,7 +509,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="G8" sqref="G8"/>
@@ -636,13 +648,13 @@
         <v>80.0</v>
       </c>
       <c r="F11">
-        <v>100.0</v>
+        <v>95.0</v>
       </c>
       <c r="G11">
-        <v>82.5</v>
+        <v>91.0</v>
       </c>
       <c r="H11">
-        <v>82.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -662,13 +674,13 @@
         <v>80.0</v>
       </c>
       <c r="F12">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="G12">
-        <v>82.5</v>
+        <v>91.0</v>
       </c>
       <c r="H12">
-        <v>82.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -688,13 +700,13 @@
         <v>80.0</v>
       </c>
       <c r="F13">
-        <v>100.0</v>
+        <v>95.0</v>
       </c>
       <c r="G13">
-        <v>82.5</v>
+        <v>91.0</v>
       </c>
       <c r="H13">
-        <v>82.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -708,19 +720,19 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>85.0</v>
+        <v>92.0</v>
       </c>
       <c r="E14">
-        <v>70.0</v>
+        <v>88.0</v>
       </c>
       <c r="F14">
-        <v>84.0</v>
+        <v>78.0</v>
       </c>
       <c r="G14">
-        <v>84.0</v>
+        <v>86.0</v>
       </c>
       <c r="H14">
-        <v>71.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -734,19 +746,68 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>1.0</v>
+        <v>76.0</v>
       </c>
       <c r="E15">
-        <v>2.0</v>
+        <v>88.0</v>
       </c>
       <c r="F15">
-        <v>3.0</v>
+        <v>80.0</v>
       </c>
       <c r="G15">
-        <v>4.0</v>
+        <v>78.0</v>
       </c>
       <c r="H15">
-        <v>5.0</v>
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>74.0</v>
+      </c>
+      <c r="E16">
+        <v>69.0</v>
+      </c>
+      <c r="F16">
+        <v>57.0</v>
+      </c>
+      <c r="G16">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>90.0</v>
+      </c>
+      <c r="E17">
+        <v>80.0</v>
+      </c>
+      <c r="F17">
+        <v>70.0</v>
+      </c>
+      <c r="G17">
+        <v>60.0</v>
+      </c>
+      <c r="H17">
+        <v>50.0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/transkip_nilai/Transkip_Nilai.xlsx
+++ b/backend/uploads/transkip_nilai/Transkip_Nilai.xlsx
@@ -772,13 +772,13 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>74.0</v>
+        <v>82.0</v>
       </c>
       <c r="E16">
-        <v>69.0</v>
+        <v>88.0</v>
       </c>
       <c r="F16">
-        <v>57.0</v>
+        <v>82.0</v>
       </c>
       <c r="G16">
         <v>83.0</v>

--- a/backend/uploads/transkip_nilai/Transkip_Nilai.xlsx
+++ b/backend/uploads/transkip_nilai/Transkip_Nilai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -26,13 +26,13 @@
     <t>NAMA</t>
   </si>
   <si>
-    <t>Alvin Ichwannur Ridho</t>
+    <t>Aditya Pratama</t>
   </si>
   <si>
     <t>NIM</t>
   </si>
   <si>
-    <t>I0717004</t>
+    <t>I0717001</t>
   </si>
   <si>
     <t>ANGKATAN</t>
@@ -95,16 +95,28 @@
     <t>Sistem Kendali</t>
   </si>
   <si>
+    <t>EE0101-19</t>
+  </si>
+  <si>
+    <t>Kalkulus I</t>
+  </si>
+  <si>
     <t>EE0102-19</t>
   </si>
   <si>
     <t>Fisika Dasar I</t>
   </si>
   <si>
-    <t>EE0101-19</t>
-  </si>
-  <si>
-    <t>Kalkulus I</t>
+    <t>EE3603-19</t>
+  </si>
+  <si>
+    <t>Pemrograman Lanjut</t>
+  </si>
+  <si>
+    <t>EE3604-19</t>
+  </si>
+  <si>
+    <t>Topik Pilihan Komputer dan Telekomunikasi</t>
   </si>
 </sst>
 </file>
@@ -509,7 +521,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="G8" sqref="G8"/>
@@ -648,13 +660,13 @@
         <v>80.0</v>
       </c>
       <c r="F11">
-        <v>95.0</v>
+        <v>100.0</v>
       </c>
       <c r="G11">
-        <v>91.0</v>
+        <v>82.5</v>
       </c>
       <c r="H11">
-        <v>95.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -674,13 +686,13 @@
         <v>80.0</v>
       </c>
       <c r="F12">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="G12">
-        <v>91.0</v>
+        <v>82.5</v>
       </c>
       <c r="H12">
-        <v>95.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -700,13 +712,13 @@
         <v>80.0</v>
       </c>
       <c r="F13">
-        <v>95.0</v>
+        <v>100.0</v>
       </c>
       <c r="G13">
-        <v>91.0</v>
+        <v>82.5</v>
       </c>
       <c r="H13">
-        <v>95.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -720,19 +732,19 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>92.0</v>
+        <v>85.0</v>
       </c>
       <c r="E14">
-        <v>88.0</v>
+        <v>70.0</v>
       </c>
       <c r="F14">
-        <v>78.0</v>
+        <v>84.0</v>
       </c>
       <c r="G14">
-        <v>86.0</v>
+        <v>84.0</v>
       </c>
       <c r="H14">
-        <v>88.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -746,19 +758,19 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>76.0</v>
+        <v>1.0</v>
       </c>
       <c r="E15">
-        <v>88.0</v>
+        <v>2.0</v>
       </c>
       <c r="F15">
-        <v>80.0</v>
+        <v>3.0</v>
       </c>
       <c r="G15">
-        <v>78.0</v>
+        <v>4.0</v>
       </c>
       <c r="H15">
-        <v>81.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -772,16 +784,19 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>82.0</v>
+        <v>90.0</v>
       </c>
       <c r="E16">
-        <v>88.0</v>
+        <v>80.0</v>
       </c>
       <c r="F16">
-        <v>82.0</v>
+        <v>70.0</v>
       </c>
       <c r="G16">
-        <v>83.0</v>
+        <v>60.0</v>
+      </c>
+      <c r="H16">
+        <v>50.0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -795,19 +810,56 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
       <c r="E17">
-        <v>80.0</v>
+        <v>83.0</v>
       </c>
       <c r="F17">
-        <v>70.0</v>
+        <v>88.0</v>
       </c>
       <c r="G17">
-        <v>60.0</v>
-      </c>
-      <c r="H17">
-        <v>50.0</v>
+        <v>79.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>87.0</v>
+      </c>
+      <c r="E18">
+        <v>86.0</v>
+      </c>
+      <c r="F18">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>89.0</v>
+      </c>
+      <c r="E19">
+        <v>88.0</v>
+      </c>
+      <c r="F19">
+        <v>81.0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/transkip_nilai/Transkip_Nilai.xlsx
+++ b/backend/uploads/transkip_nilai/Transkip_Nilai.xlsx
@@ -758,19 +758,19 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>1.0</v>
+        <v>70.0</v>
       </c>
       <c r="E15">
-        <v>2.0</v>
+        <v>76.0</v>
       </c>
       <c r="F15">
-        <v>3.0</v>
+        <v>78.0</v>
       </c>
       <c r="G15">
-        <v>4.0</v>
+        <v>87.0</v>
       </c>
       <c r="H15">
-        <v>5.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
